--- a/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
+++ b/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lelasseux\Documents\Perso\src\work\JJazzLab-X\MidiConverters\src\org\jjazz\midiconverters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4647F-DC4D-4832-9B7E-E2EB391FC5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="1590">
   <si>
     <t>Bank Number</t>
   </si>
@@ -4622,12 +4616,186 @@
   </si>
   <si>
     <t xml:space="preserve">        "Taisho kin"</t>
+  </si>
+  <si>
+    <t>Drum Kit Standard</t>
+  </si>
+  <si>
+    <t>Drum Kit Room</t>
+  </si>
+  <si>
+    <t>Drum Kit Power</t>
+  </si>
+  <si>
+    <t>Drum Kit Electronic</t>
+  </si>
+  <si>
+    <t>Drum Kit Analog</t>
+  </si>
+  <si>
+    <t>Drum Kit Jazz</t>
+  </si>
+  <si>
+    <t>Drum Kit Brush</t>
+  </si>
+  <si>
+    <t>Drum Kit Orchestra</t>
+  </si>
+  <si>
+    <t>Drum Kit SFX</t>
+  </si>
+  <si>
+    <t>Std1 Kit</t>
+  </si>
+  <si>
+    <t>Std2 Kit</t>
+  </si>
+  <si>
+    <t>Dry Kit</t>
+  </si>
+  <si>
+    <t>Bright Kit</t>
+  </si>
+  <si>
+    <t>Skim Kit</t>
+  </si>
+  <si>
+    <t>Slim Kit</t>
+  </si>
+  <si>
+    <t>Rogue Kit</t>
+  </si>
+  <si>
+    <t>Hob Kit</t>
+  </si>
+  <si>
+    <t>Room Kit</t>
+  </si>
+  <si>
+    <t>Dark Kit</t>
+  </si>
+  <si>
+    <t>Rock_Old Kit</t>
+  </si>
+  <si>
+    <t>Rock_Old2 Kit</t>
+  </si>
+  <si>
+    <t>Electro Kit</t>
+  </si>
+  <si>
+    <t>Analog Kit</t>
+  </si>
+  <si>
+    <t>Analog2 Kit</t>
+  </si>
+  <si>
+    <t>Dance Kit</t>
+  </si>
+  <si>
+    <t>Hiphop Kit</t>
+  </si>
+  <si>
+    <t>Jungle Kit</t>
+  </si>
+  <si>
+    <t>Apogee Kit</t>
+  </si>
+  <si>
+    <t>Perigee Kit</t>
+  </si>
+  <si>
+    <t>Jazz Kit</t>
+  </si>
+  <si>
+    <t>Jazz2 Kit</t>
+  </si>
+  <si>
+    <t>Brush Kit</t>
+  </si>
+  <si>
+    <t>Real_Brush Kit</t>
+  </si>
+  <si>
+    <t>Symphony Kit</t>
+  </si>
+  <si>
+    <t>HipHop2 Kit</t>
+  </si>
+  <si>
+    <t>Break Kit</t>
+  </si>
+  <si>
+    <t>Tramp Kit</t>
+  </si>
+  <si>
+    <t>Amber Kit</t>
+  </si>
+  <si>
+    <t>Coffin Kit</t>
+  </si>
+  <si>
+    <t>Live_Std Kit</t>
+  </si>
+  <si>
+    <t>Live_Funk Kit</t>
+  </si>
+  <si>
+    <t>Live_Brush Kit</t>
+  </si>
+  <si>
+    <t>Live_Std_Perc Kit</t>
+  </si>
+  <si>
+    <t>Live_Funk_Perc Kit</t>
+  </si>
+  <si>
+    <t>Live_Brush_Perc Kit</t>
+  </si>
+  <si>
+    <t>SFX1 Kit</t>
+  </si>
+  <si>
+    <t>SFX2 Kit</t>
+  </si>
+  <si>
+    <t>Techno_KS Kit</t>
+  </si>
+  <si>
+    <t>Techno_HI Kit</t>
+  </si>
+  <si>
+    <t>Techno_LO Kit</t>
+  </si>
+  <si>
+    <t>Sakura Kit</t>
+  </si>
+  <si>
+    <t>Small_Latin Kit</t>
+  </si>
+  <si>
+    <t>China Kit</t>
+  </si>
+  <si>
+    <t>Cuban Kit</t>
+  </si>
+  <si>
+    <t>Cuban2 Kit</t>
+  </si>
+  <si>
+    <t>Brazilian Kit</t>
+  </si>
+  <si>
+    <t>PopLatin1 Kit</t>
+  </si>
+  <si>
+    <t>PopLatin2 Kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4645,7 +4813,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4655,6 +4823,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4686,7 +4866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4701,6 +4881,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4761,7 +4943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4794,26 +4976,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4846,23 +5011,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5038,12 +5186,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F775"/>
   <sheetViews>
-    <sheetView topLeftCell="A689" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C773"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20552,7 +20700,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F775" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F775">
     <filterColumn colId="5">
       <filters>
         <filter val="o"/>
@@ -20565,17 +20713,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+    <sheetView topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="E258" sqref="E258:F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
@@ -27727,6 +27875,132 @@
         <v>3</v>
       </c>
     </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>222</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E258">
+        <v>256</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>223</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E259">
+        <v>257</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>224</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E260">
+        <v>258</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>225</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E261">
+        <v>259</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>226</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E262">
+        <v>260</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>227</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E263">
+        <v>261</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>228</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E264">
+        <v>262</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>229</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E265">
+        <v>263</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>230</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E266">
+        <v>264</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27734,11 +28008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K481"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="H512" sqref="H512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40501,6 +40775,632 @@
         <v>115</v>
       </c>
     </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="7">
+        <v>256</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G482">
+        <v>480</v>
+      </c>
+      <c r="H482" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="7">
+        <v>256</v>
+      </c>
+      <c r="B483" s="7"/>
+      <c r="G483">
+        <v>481</v>
+      </c>
+      <c r="H483" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="7">
+        <v>256</v>
+      </c>
+      <c r="B484" s="7"/>
+      <c r="G484">
+        <v>482</v>
+      </c>
+      <c r="H484" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="7">
+        <v>256</v>
+      </c>
+      <c r="B485" s="7"/>
+      <c r="G485">
+        <v>483</v>
+      </c>
+      <c r="H485" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="7">
+        <v>256</v>
+      </c>
+      <c r="B486" s="7"/>
+      <c r="G486">
+        <v>484</v>
+      </c>
+      <c r="H486" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="7">
+        <v>256</v>
+      </c>
+      <c r="B487" s="7"/>
+      <c r="G487">
+        <v>485</v>
+      </c>
+      <c r="H487" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="7">
+        <v>256</v>
+      </c>
+      <c r="B488" s="7"/>
+      <c r="G488">
+        <v>486</v>
+      </c>
+      <c r="H488" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="7">
+        <v>256</v>
+      </c>
+      <c r="B489" s="7"/>
+      <c r="G489">
+        <v>487</v>
+      </c>
+      <c r="H489" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="7">
+        <v>257</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G490">
+        <v>488</v>
+      </c>
+      <c r="H490" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" s="7">
+        <v>257</v>
+      </c>
+      <c r="B491" s="7"/>
+      <c r="G491">
+        <v>489</v>
+      </c>
+      <c r="H491" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" s="7">
+        <v>258</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G492">
+        <v>490</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" s="7">
+        <v>258</v>
+      </c>
+      <c r="B493" s="7"/>
+      <c r="G493">
+        <v>491</v>
+      </c>
+      <c r="H493" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" s="7">
+        <v>259</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G494">
+        <v>492</v>
+      </c>
+      <c r="H494" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="7">
+        <v>260</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G495">
+        <v>493</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" s="7">
+        <v>260</v>
+      </c>
+      <c r="B496" s="7"/>
+      <c r="G496">
+        <v>494</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="7">
+        <v>260</v>
+      </c>
+      <c r="B497" s="7"/>
+      <c r="G497">
+        <v>495</v>
+      </c>
+      <c r="H497" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" s="7">
+        <v>260</v>
+      </c>
+      <c r="B498" s="7"/>
+      <c r="G498">
+        <v>496</v>
+      </c>
+      <c r="H498" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" s="7">
+        <v>260</v>
+      </c>
+      <c r="B499" s="7"/>
+      <c r="G499">
+        <v>497</v>
+      </c>
+      <c r="H499" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" s="7">
+        <v>260</v>
+      </c>
+      <c r="B500" s="7"/>
+      <c r="G500">
+        <v>498</v>
+      </c>
+      <c r="H500" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" s="7">
+        <v>260</v>
+      </c>
+      <c r="B501" s="7"/>
+      <c r="G501">
+        <v>499</v>
+      </c>
+      <c r="H501" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" s="7">
+        <v>261</v>
+      </c>
+      <c r="B502" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G502">
+        <v>500</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" s="7">
+        <v>261</v>
+      </c>
+      <c r="B503" s="7"/>
+      <c r="G503">
+        <v>501</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" s="7">
+        <v>262</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G504">
+        <v>502</v>
+      </c>
+      <c r="H504" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" s="7">
+        <v>262</v>
+      </c>
+      <c r="B505" s="7"/>
+      <c r="G505">
+        <v>503</v>
+      </c>
+      <c r="H505" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" s="7">
+        <v>263</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G506">
+        <v>504</v>
+      </c>
+      <c r="H506" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" s="7">
+        <v>259</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G507">
+        <v>505</v>
+      </c>
+      <c r="H507" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" s="7">
+        <v>259</v>
+      </c>
+      <c r="B508" s="7"/>
+      <c r="G508">
+        <v>506</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A509" s="7">
+        <v>259</v>
+      </c>
+      <c r="B509" s="7"/>
+      <c r="G509">
+        <v>507</v>
+      </c>
+      <c r="H509" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A510" s="7">
+        <v>259</v>
+      </c>
+      <c r="B510" s="7"/>
+      <c r="G510">
+        <v>508</v>
+      </c>
+      <c r="H510" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A511" s="7">
+        <v>259</v>
+      </c>
+      <c r="B511" s="7"/>
+      <c r="G511">
+        <v>509</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>256</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G512">
+        <v>510</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>256</v>
+      </c>
+      <c r="B513" s="6"/>
+      <c r="G513">
+        <v>511</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>262</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G514">
+        <v>512</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>256</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G515">
+        <v>513</v>
+      </c>
+      <c r="H515" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>256</v>
+      </c>
+      <c r="B516" s="6"/>
+      <c r="G516">
+        <v>514</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>262</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G517">
+        <v>515</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>264</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G518">
+        <v>516</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>264</v>
+      </c>
+      <c r="B519" s="6"/>
+      <c r="G519">
+        <v>517</v>
+      </c>
+      <c r="H519" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>259</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G520">
+        <v>518</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>259</v>
+      </c>
+      <c r="B521" s="6"/>
+      <c r="G521">
+        <v>519</v>
+      </c>
+      <c r="H521" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>259</v>
+      </c>
+      <c r="B522" s="6"/>
+      <c r="G522">
+        <v>520</v>
+      </c>
+      <c r="H522" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>256</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G523">
+        <v>521</v>
+      </c>
+      <c r="H523" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>256</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G524">
+        <v>522</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>256</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G525">
+        <v>523</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>256</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G526">
+        <v>524</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>256</v>
+      </c>
+      <c r="B527" s="6"/>
+      <c r="G527">
+        <v>525</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>256</v>
+      </c>
+      <c r="B528" s="6"/>
+      <c r="G528">
+        <v>526</v>
+      </c>
+      <c r="H528" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>256</v>
+      </c>
+      <c r="B529" s="6"/>
+      <c r="G529">
+        <v>527</v>
+      </c>
+      <c r="H529" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>256</v>
+      </c>
+      <c r="B530" s="6"/>
+      <c r="G530">
+        <v>528</v>
+      </c>
+      <c r="H530" t="s">
+        <v>1589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
+++ b/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
@@ -10,6 +10,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="GS-GM2" sheetId="2" r:id="rId2"/>
     <sheet name="GM2-XG" sheetId="3" r:id="rId3"/>
+    <sheet name="KeyMaps" sheetId="4" r:id="rId4"/>
+    <sheet name="KeyMap XG&gt;GM" sheetId="6" r:id="rId5"/>
+    <sheet name="KeyMap GM2&gt;GM" sheetId="5" r:id="rId6"/>
+    <sheet name="KeyMap XGLatin&gt;GM" sheetId="7" r:id="rId7"/>
+    <sheet name="KeyMap XG&gt;GM2" sheetId="8" r:id="rId8"/>
+    <sheet name="KeyMap XGLatin&gt;GM2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$775</definedName>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="1784">
   <si>
     <t>Bank Number</t>
   </si>
@@ -4790,6 +4796,588 @@
   </si>
   <si>
     <t>PopLatin2 Kit</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>XGpopLatin</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>ACOUSTIC_BASS_DRUM</t>
+  </si>
+  <si>
+    <t>BASS_DRUM_1</t>
+  </si>
+  <si>
+    <t>SIDE_STICK</t>
+  </si>
+  <si>
+    <t>ACOUSTIC_SNARE</t>
+  </si>
+  <si>
+    <t>HAND_CLAP</t>
+  </si>
+  <si>
+    <t>ELECTRIC_SNARE</t>
+  </si>
+  <si>
+    <t>LOW_FLOOR_TOM</t>
+  </si>
+  <si>
+    <t>CLOSED_HI_HAT</t>
+  </si>
+  <si>
+    <t>HIGH_FLOOR_TOM</t>
+  </si>
+  <si>
+    <t>PEDAL_HI_HAT</t>
+  </si>
+  <si>
+    <t>LOW_TOM</t>
+  </si>
+  <si>
+    <t>OPEN_HI_HAT</t>
+  </si>
+  <si>
+    <t>LOW_MID_TOM</t>
+  </si>
+  <si>
+    <t>HI_MID_TOM</t>
+  </si>
+  <si>
+    <t>CRASH_CYMBAL_1</t>
+  </si>
+  <si>
+    <t>HIGH_TOM</t>
+  </si>
+  <si>
+    <t>RIDE_CYMBAL_1</t>
+  </si>
+  <si>
+    <t>CHINESE_CYMBAL</t>
+  </si>
+  <si>
+    <t>RIDE_BELL</t>
+  </si>
+  <si>
+    <t>TAMBOURINE</t>
+  </si>
+  <si>
+    <t>SPLASH_CYMBAL</t>
+  </si>
+  <si>
+    <t>COWBELL</t>
+  </si>
+  <si>
+    <t>CRASH_CYMBAL_2</t>
+  </si>
+  <si>
+    <t>VIBRASLAP</t>
+  </si>
+  <si>
+    <t>RIDE_CYMBAL_2</t>
+  </si>
+  <si>
+    <t>HI_BONGO</t>
+  </si>
+  <si>
+    <t>LOW_BONGO</t>
+  </si>
+  <si>
+    <t>MUTE_HI_CONGA</t>
+  </si>
+  <si>
+    <t>OPEN_HI_CONGA</t>
+  </si>
+  <si>
+    <t>LOW_CONGA</t>
+  </si>
+  <si>
+    <t>HIGH_TIMBALE</t>
+  </si>
+  <si>
+    <t>LOW_TIMBALE</t>
+  </si>
+  <si>
+    <t>HIGH_AGOGO</t>
+  </si>
+  <si>
+    <t>LOW_AGOGO</t>
+  </si>
+  <si>
+    <t>CABASA</t>
+  </si>
+  <si>
+    <t>MARACAS</t>
+  </si>
+  <si>
+    <t>SHORT_WHISTLE</t>
+  </si>
+  <si>
+    <t>LONG_WHISTLE</t>
+  </si>
+  <si>
+    <t>SHORT_GUIRO</t>
+  </si>
+  <si>
+    <t>LONG_GUIRO</t>
+  </si>
+  <si>
+    <t>CLAVES</t>
+  </si>
+  <si>
+    <t>HI_WOOD_SECTION</t>
+  </si>
+  <si>
+    <t>LOW_WOOD_SECTION</t>
+  </si>
+  <si>
+    <t>MUTE_CUICA</t>
+  </si>
+  <si>
+    <t>OPEN_CUICA</t>
+  </si>
+  <si>
+    <t>MUTE_TRIANGLE</t>
+  </si>
+  <si>
+    <t>OPEN_TRIANGLE</t>
+  </si>
+  <si>
+    <t>Beep 1</t>
+  </si>
+  <si>
+    <t>Beep 2</t>
+  </si>
+  <si>
+    <t>Concert Snare</t>
+  </si>
+  <si>
+    <t>SNARE ROLL</t>
+  </si>
+  <si>
+    <t>FINGER SNAP</t>
+  </si>
+  <si>
+    <t>HIGH Q</t>
+  </si>
+  <si>
+    <t>SLAP</t>
+  </si>
+  <si>
+    <t>SCRATCH PUSH</t>
+  </si>
+  <si>
+    <t>Scratch Pull</t>
+  </si>
+  <si>
+    <t>Sticks</t>
+  </si>
+  <si>
+    <t>Square Click</t>
+  </si>
+  <si>
+    <t>Metronome Click</t>
+  </si>
+  <si>
+    <t>Metronome Bell</t>
+  </si>
+  <si>
+    <t>ACOUSTIC BASS DRUM</t>
+  </si>
+  <si>
+    <t>BASS DRUM 1</t>
+  </si>
+  <si>
+    <t>SIDE STICK</t>
+  </si>
+  <si>
+    <t>ACOUSTIC SNARE</t>
+  </si>
+  <si>
+    <t>HAND CLAP</t>
+  </si>
+  <si>
+    <t>ELECTRIC SNARE</t>
+  </si>
+  <si>
+    <t>LOW FLOOR TOM</t>
+  </si>
+  <si>
+    <t>CLOSED HI HAT</t>
+  </si>
+  <si>
+    <t>HIGH FLOOR TOM</t>
+  </si>
+  <si>
+    <t>PEDAL HI HAT</t>
+  </si>
+  <si>
+    <t>LOW TOM</t>
+  </si>
+  <si>
+    <t>OPEN HI HAT</t>
+  </si>
+  <si>
+    <t>LOW MID TOM</t>
+  </si>
+  <si>
+    <t>HI MID TOM</t>
+  </si>
+  <si>
+    <t>CRASH CYMBAL 1</t>
+  </si>
+  <si>
+    <t>HIGH TOM</t>
+  </si>
+  <si>
+    <t>RIDE CYMBAL 1</t>
+  </si>
+  <si>
+    <t>CHINESE CYMBAL</t>
+  </si>
+  <si>
+    <t>RIDE BELL</t>
+  </si>
+  <si>
+    <t>SPLASH CYMBAL</t>
+  </si>
+  <si>
+    <t>CRASH CYMBAL 2</t>
+  </si>
+  <si>
+    <t>RIDE CYMBAL 2</t>
+  </si>
+  <si>
+    <t>HI BONGO</t>
+  </si>
+  <si>
+    <t>LOW BONGO</t>
+  </si>
+  <si>
+    <t>MUTE HI CONGA</t>
+  </si>
+  <si>
+    <t>OPEN HI CONGA</t>
+  </si>
+  <si>
+    <t>LOW CONGA</t>
+  </si>
+  <si>
+    <t>HIGH TIMBALE</t>
+  </si>
+  <si>
+    <t>LOW TIMBALE</t>
+  </si>
+  <si>
+    <t>HIGH AGOGO</t>
+  </si>
+  <si>
+    <t>LOW AGOGO</t>
+  </si>
+  <si>
+    <t>SHORT WHISTLE</t>
+  </si>
+  <si>
+    <t>LONG WHISTLE</t>
+  </si>
+  <si>
+    <t>SHORT GUIRO</t>
+  </si>
+  <si>
+    <t>LONG GUIRO</t>
+  </si>
+  <si>
+    <t>HI WOOD SECTION</t>
+  </si>
+  <si>
+    <t>LOW WOOD SECTION</t>
+  </si>
+  <si>
+    <t>MUTE CUICA</t>
+  </si>
+  <si>
+    <t>OPEN CUICA</t>
+  </si>
+  <si>
+    <t>MUTE TRIANGLE</t>
+  </si>
+  <si>
+    <t>OPEN TRIANGLE</t>
+  </si>
+  <si>
+    <t>Shaker</t>
+  </si>
+  <si>
+    <t>Jingle Bell</t>
+  </si>
+  <si>
+    <t>Belltree</t>
+  </si>
+  <si>
+    <t>Mute Surdo</t>
+  </si>
+  <si>
+    <t>Open Surdo</t>
+  </si>
+  <si>
+    <t>Surdo Mute</t>
+  </si>
+  <si>
+    <t>Surdo Open</t>
+  </si>
+  <si>
+    <t>Whip Slap</t>
+  </si>
+  <si>
+    <t>CLICK Noise</t>
+  </si>
+  <si>
+    <t>Seq Click Low</t>
+  </si>
+  <si>
+    <t>Seq Click High</t>
+  </si>
+  <si>
+    <t>Brush Tap</t>
+  </si>
+  <si>
+    <t>Brush Swirl Low</t>
+  </si>
+  <si>
+    <t>Brush Slap</t>
+  </si>
+  <si>
+    <t>Brush Tap Swirl</t>
+  </si>
+  <si>
+    <t>Snare Roll</t>
+  </si>
+  <si>
+    <t>Snare Soft</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Kick Soft</t>
+  </si>
+  <si>
+    <t>Rim Shot Open</t>
+  </si>
+  <si>
+    <t>Kick tight</t>
+  </si>
+  <si>
+    <t>Cajon Low</t>
+  </si>
+  <si>
+    <t>Cajon Slap</t>
+  </si>
+  <si>
+    <t>Cajon Tip</t>
+  </si>
+  <si>
+    <t>Claves High</t>
+  </si>
+  <si>
+    <t>Claves Low</t>
+  </si>
+  <si>
+    <t>Hand Clap</t>
+  </si>
+  <si>
+    <t>Finger Snap</t>
+  </si>
+  <si>
+    <t>Castanet</t>
+  </si>
+  <si>
+    <t>Conga H Tip</t>
+  </si>
+  <si>
+    <t>Conga H Heel</t>
+  </si>
+  <si>
+    <t>Conga H Open</t>
+  </si>
+  <si>
+    <t>Conga H Mute</t>
+  </si>
+  <si>
+    <t>Conga H Slap Open</t>
+  </si>
+  <si>
+    <t>Conga H Slap</t>
+  </si>
+  <si>
+    <t>Conga H Slap Mute</t>
+  </si>
+  <si>
+    <t>Conga L Tip</t>
+  </si>
+  <si>
+    <t>Conga L Heel</t>
+  </si>
+  <si>
+    <t>Conga L Open</t>
+  </si>
+  <si>
+    <t>Conga L Mute</t>
+  </si>
+  <si>
+    <t>Conga L Slap Open</t>
+  </si>
+  <si>
+    <t>Conga L Slap</t>
+  </si>
+  <si>
+    <t>Conga L Slide</t>
+  </si>
+  <si>
+    <t>Bongo H Open 1 finger</t>
+  </si>
+  <si>
+    <t>Bongo H Open 3 finger</t>
+  </si>
+  <si>
+    <t>Bongo H Rim</t>
+  </si>
+  <si>
+    <t>Bongo H Tip</t>
+  </si>
+  <si>
+    <t>Bongo H Heel</t>
+  </si>
+  <si>
+    <t>Bongo H Slap</t>
+  </si>
+  <si>
+    <t>Bongo L Open 1 finger</t>
+  </si>
+  <si>
+    <t>Bongo L Open 3 finger</t>
+  </si>
+  <si>
+    <t>Bongo L Rim</t>
+  </si>
+  <si>
+    <t>Bongo L Tip</t>
+  </si>
+  <si>
+    <t>Bongo L Heel</t>
+  </si>
+  <si>
+    <t>Bongo L Slap</t>
+  </si>
+  <si>
+    <t>Timbale L Open</t>
+  </si>
+  <si>
+    <t>Paila L</t>
+  </si>
+  <si>
+    <t>Timbale H Open</t>
+  </si>
+  <si>
+    <t>Paila H</t>
+  </si>
+  <si>
+    <t>Cowbell Top</t>
+  </si>
+  <si>
+    <t>Cowbell 1</t>
+  </si>
+  <si>
+    <t>Cowbell 2</t>
+  </si>
+  <si>
+    <t>Cowbell 3</t>
+  </si>
+  <si>
+    <t>Guiro Short</t>
+  </si>
+  <si>
+    <t>Guiro Long</t>
+  </si>
+  <si>
+    <t>Metal Guiro Short</t>
+  </si>
+  <si>
+    <t>Metal Guiro Long</t>
+  </si>
+  <si>
+    <t>Tambourim Open</t>
+  </si>
+  <si>
+    <t>Tambourim Mute</t>
+  </si>
+  <si>
+    <t>Tambourim Tip</t>
+  </si>
+  <si>
+    <t>Maracas</t>
+  </si>
+  <si>
+    <t>Cabasa</t>
+  </si>
+  <si>
+    <t>Cuica Mute</t>
+  </si>
+  <si>
+    <t>Cuica Open</t>
+  </si>
+  <si>
+    <t>Cowbell High 1</t>
+  </si>
+  <si>
+    <t>Cowbell High 2</t>
+  </si>
+  <si>
+    <t>Shekere</t>
+  </si>
+  <si>
+    <t>Shekere Tone</t>
+  </si>
+  <si>
+    <t>Triangle Mute</t>
+  </si>
+  <si>
+    <t>Triangle Open</t>
+  </si>
+  <si>
+    <t>Wind Chime</t>
+  </si>
+  <si>
+    <t>Pitch GM2</t>
+  </si>
+  <si>
+    <t>Pitch GM</t>
+  </si>
+  <si>
+    <t>PitchGM2&gt;GM</t>
+  </si>
+  <si>
+    <t>Pitch XG &gt; GM</t>
+  </si>
+  <si>
+    <t>Pitch XG</t>
+  </si>
+  <si>
+    <t>Pitch XGLatin &gt; GM</t>
+  </si>
+  <si>
+    <t>XGLatin</t>
+  </si>
+  <si>
+    <t>Pitch XG &gt; GM2</t>
+  </si>
+  <si>
+    <t>Pitch XGLatin &gt; GM2</t>
   </si>
 </sst>
 </file>
@@ -5187,7 +5775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Feuil1" filterMode="1"/>
   <dimension ref="A1:F775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20714,9 +21302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E258" sqref="E258:F266"/>
     </sheetView>
   </sheetViews>
@@ -28009,6 +28598,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:K530"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
@@ -41404,4 +41994,7075 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:C89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D32" t="s">
+        <v>674</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E70" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="B3:F79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D37">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D42">
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D44">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D46">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D47">
+        <v>52</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D48">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D49">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51">
+        <v>56</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D52">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D53">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D54">
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D56">
+        <v>61</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D57">
+        <v>62</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D58">
+        <v>63</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D61">
+        <v>66</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D64">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D66">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D67">
+        <v>72</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D68">
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D69">
+        <v>74</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D71">
+        <v>76</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D72">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D73">
+        <v>78</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D74">
+        <v>79</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D75">
+        <v>80</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D76">
+        <v>81</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>69</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>53</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>59</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="B3:F69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D24">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D26">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D33">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D34">
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D35">
+        <v>53</v>
+      </c>
+      <c r="E35">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D38">
+        <v>56</v>
+      </c>
+      <c r="E38">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D39">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D41">
+        <v>59</v>
+      </c>
+      <c r="E41">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D43">
+        <v>61</v>
+      </c>
+      <c r="E43">
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D44">
+        <v>62</v>
+      </c>
+      <c r="E44">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D45">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D47">
+        <v>65</v>
+      </c>
+      <c r="E47">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D48">
+        <v>66</v>
+      </c>
+      <c r="E48">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D49">
+        <v>67</v>
+      </c>
+      <c r="E49">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D50">
+        <v>68</v>
+      </c>
+      <c r="E50">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D51">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>69</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D52">
+        <v>70</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D53">
+        <v>71</v>
+      </c>
+      <c r="E53">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D54">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D55">
+        <v>73</v>
+      </c>
+      <c r="E55">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D56">
+        <v>74</v>
+      </c>
+      <c r="E56">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D57">
+        <v>75</v>
+      </c>
+      <c r="E57">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D58">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>76</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D59">
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D60">
+        <v>78</v>
+      </c>
+      <c r="E60">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D61">
+        <v>79</v>
+      </c>
+      <c r="E61">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D62">
+        <v>80</v>
+      </c>
+      <c r="E62">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D63">
+        <v>81</v>
+      </c>
+      <c r="E63">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>53</v>
+      </c>
+      <c r="E65">
+        <v>83</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>59</v>
+      </c>
+      <c r="E66">
+        <v>84</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>75</v>
+      </c>
+      <c r="E67">
+        <v>85</v>
+      </c>
+      <c r="F67" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="E68">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>45</v>
+      </c>
+      <c r="E69">
+        <v>87</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil7"/>
+  <dimension ref="B3:F79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D38">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D45">
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D47">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D58">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D59">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D60">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D61">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D62">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D63">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D66">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D67">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D68">
+        <v>70</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D70">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D71">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D72">
+        <v>76</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D74">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D75">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D76">
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>81</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>69</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>51</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil8"/>
+  <dimension ref="B3:F82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D79" sqref="D8:D79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D20">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D22">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D25">
+        <v>85</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D29">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D37">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D42">
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D44">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D46">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D47">
+        <v>52</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D48">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D49">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51">
+        <v>56</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D52">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D53">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D54">
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D56">
+        <v>61</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D57">
+        <v>62</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D58">
+        <v>63</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D61">
+        <v>66</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D64">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D66">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D67">
+        <v>72</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D68">
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D69">
+        <v>74</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D71">
+        <v>76</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D72">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D73">
+        <v>78</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D74">
+        <v>79</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D75">
+        <v>80</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D76">
+        <v>81</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D77">
+        <v>82</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D78">
+        <v>83</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D79">
+        <v>84</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil9"/>
+  <dimension ref="B3:F82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D26">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D38">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D45">
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D47">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D58">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D59">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D60">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D61">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D62">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D63">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D66">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D67">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D68">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D70">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D71">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D72">
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D74">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D75">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D76">
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D77">
+        <v>81</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D78">
+        <v>69</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D79">
+        <v>84</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
+++ b/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28601,7 +28601,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:K530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+    <sheetView topLeftCell="A493" workbookViewId="0">
       <selection activeCell="H512" sqref="H512"/>
     </sheetView>
   </sheetViews>
@@ -45555,8 +45555,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="B3:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45901,7 +45901,7 @@
         <v>1597</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>39</v>
@@ -45918,7 +45918,7 @@
         <v>1598</v>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>40</v>
@@ -46003,7 +46003,7 @@
         <v>1603</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <v>45</v>
@@ -46020,7 +46020,7 @@
         <v>1604</v>
       </c>
       <c r="D41">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>46</v>

--- a/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
+++ b/MidiConverters/src/org/jjazz/midiconverters/resources/MidiStandardJJazzLab-DATA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lelasseux\Documents\Perso\src\work\JJazzLab-X\MidiConverters\src\org\jjazz\midiconverters\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC9C626-AF96-42C4-A0C0-B60519753362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,8 +20,10 @@
     <sheet name="KeyMap XG&gt;GM" sheetId="6" r:id="rId5"/>
     <sheet name="KeyMap GM2&gt;GM" sheetId="5" r:id="rId6"/>
     <sheet name="KeyMap XGLatin&gt;GM" sheetId="7" r:id="rId7"/>
-    <sheet name="KeyMap XG&gt;GM2" sheetId="8" r:id="rId8"/>
-    <sheet name="KeyMap XGLatin&gt;GM2" sheetId="9" r:id="rId9"/>
+    <sheet name="KeyMap GM2&gt;XG" sheetId="11" r:id="rId8"/>
+    <sheet name="KeyMap XG&gt;GM2" sheetId="8" r:id="rId9"/>
+    <sheet name="KeyMap XGLatin&gt;GM2" sheetId="9" r:id="rId10"/>
+    <sheet name="KeyMap XGLatin&gt;XG" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$775</definedName>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="1786">
   <si>
     <t>Bank Number</t>
   </si>
@@ -5378,12 +5386,18 @@
   </si>
   <si>
     <t>Pitch XGLatin &gt; GM2</t>
+  </si>
+  <si>
+    <t>Pitch XGLatin &gt; XG</t>
+  </si>
+  <si>
+    <t>Pitch GM2&gt;XG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5531,7 +5545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5564,9 +5578,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5599,6 +5630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5774,7 +5822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1" filterMode="1"/>
   <dimension ref="A1:F775"/>
   <sheetViews>
@@ -21288,7 +21336,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F775">
+  <autoFilter ref="A1:F775" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="o"/>
@@ -21300,8 +21348,2443 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Feuil9"/>
+  <dimension ref="B3:F82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D26">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D38">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D45">
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D47">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D58">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D59">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D60">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D61">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D62">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D63">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D66">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D67">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D68">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D70">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D71">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D72">
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D74">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D75">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D76">
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D77">
+        <v>81</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D78">
+        <v>69</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D79">
+        <v>84</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF7170B-52F3-422C-AD46-9EB8B68AC128}">
+  <dimension ref="B3:F79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D12">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>674</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D26">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D36">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D38">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D45">
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D47">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D58">
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D59">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D60">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D61">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D62">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D63">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D66">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D67">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D68">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D70">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D71">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D72">
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D73">
+        <v>56</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D74">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D75">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D76">
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D77">
+        <v>81</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D78">
+        <v>69</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D79">
+        <v>84</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:I266"/>
   <sheetViews>
@@ -28597,7 +31080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:K530"/>
   <sheetViews>
@@ -41997,12 +44480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C89"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43353,11 +45836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="B3:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -44466,7 +46949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="B3:F69"/>
   <sheetViews>
@@ -45551,11 +48034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="B3:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -46633,12 +49116,1227 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E9C57A-3CD3-4E3C-9CCE-FE0B51A169FF}">
+  <dimension ref="C3:G82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E20">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>674</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+      <c r="F44">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="F46">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+      <c r="F47">
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49">
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+      <c r="F52">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <v>58</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54">
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="F57">
+        <v>62</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="F58">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60">
+        <v>65</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61">
+        <v>66</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62">
+        <v>67</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="F63">
+        <v>68</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66">
+        <v>71</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="F68">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="F71">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="F72">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="F73">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="F74">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>81</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="F77">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E78">
+        <v>83</v>
+      </c>
+      <c r="F78">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="B3:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D79" sqref="D8:D79"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47862,1207 +51560,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil9"/>
-  <dimension ref="B3:F82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C3" t="s">
-        <v>783</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>87</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>86</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>62</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>76</v>
-      </c>
-      <c r="E12">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>39</v>
-      </c>
-      <c r="E13">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>85</v>
-      </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D17">
-        <v>61</v>
-      </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D18">
-        <v>63</v>
-      </c>
-      <c r="E18">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D19">
-        <v>62</v>
-      </c>
-      <c r="E19">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D20">
-        <v>63</v>
-      </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D21">
-        <v>64</v>
-      </c>
-      <c r="E21">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D22">
-        <v>62</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D23">
-        <v>61</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D24">
-        <v>60</v>
-      </c>
-      <c r="E24">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D25">
-        <v>64</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D26">
-        <v>63</v>
-      </c>
-      <c r="E26">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D27">
-        <v>62</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D28">
-        <v>62</v>
-      </c>
-      <c r="E28">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D29">
-        <v>64</v>
-      </c>
-      <c r="E29">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D30">
-        <v>60</v>
-      </c>
-      <c r="E30">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D31">
-        <v>60</v>
-      </c>
-      <c r="E31">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D32">
-        <v>63</v>
-      </c>
-      <c r="E32">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D33">
-        <v>62</v>
-      </c>
-      <c r="E33">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D34">
-        <v>66</v>
-      </c>
-      <c r="E34">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D35">
-        <v>65</v>
-      </c>
-      <c r="E35">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D36">
-        <v>61</v>
-      </c>
-      <c r="E36">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D37">
-        <v>61</v>
-      </c>
-      <c r="E37">
-        <v>42</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D38">
-        <v>62</v>
-      </c>
-      <c r="E38">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D39">
-        <v>63</v>
-      </c>
-      <c r="E39">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D40">
-        <v>65</v>
-      </c>
-      <c r="E40">
-        <v>45</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D41">
-        <v>66</v>
-      </c>
-      <c r="E41">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D42">
-        <v>45</v>
-      </c>
-      <c r="E42">
-        <v>47</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D43">
-        <v>69</v>
-      </c>
-      <c r="E43">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D44">
-        <v>70</v>
-      </c>
-      <c r="E44">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D45">
-        <v>69</v>
-      </c>
-      <c r="E45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D46">
-        <v>70</v>
-      </c>
-      <c r="E46">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D47">
-        <v>69</v>
-      </c>
-      <c r="E47">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D48">
-        <v>48</v>
-      </c>
-      <c r="E48">
-        <v>53</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>54</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D49">
-        <v>48</v>
-      </c>
-      <c r="E49">
-        <v>54</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D50">
-        <v>69</v>
-      </c>
-      <c r="E50">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>56</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D51">
-        <v>70</v>
-      </c>
-      <c r="E51">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D52">
-        <v>69</v>
-      </c>
-      <c r="E52">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D53">
-        <v>70</v>
-      </c>
-      <c r="E53">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D54">
-        <v>50</v>
-      </c>
-      <c r="E54">
-        <v>59</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>60</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D55">
-        <v>56</v>
-      </c>
-      <c r="E55">
-        <v>60</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D56">
-        <v>76</v>
-      </c>
-      <c r="E56">
-        <v>61</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>62</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D57">
-        <v>56</v>
-      </c>
-      <c r="E57">
-        <v>62</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D58">
-        <v>77</v>
-      </c>
-      <c r="E58">
-        <v>63</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D59">
-        <v>73</v>
-      </c>
-      <c r="E59">
-        <v>64</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>65</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D60">
-        <v>74</v>
-      </c>
-      <c r="E60">
-        <v>65</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D61">
-        <v>73</v>
-      </c>
-      <c r="E61">
-        <v>66</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D62">
-        <v>74</v>
-      </c>
-      <c r="E62">
-        <v>67</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D63">
-        <v>54</v>
-      </c>
-      <c r="E63">
-        <v>68</v>
-      </c>
-      <c r="F63" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D64">
-        <v>54</v>
-      </c>
-      <c r="E64">
-        <v>69</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D65">
-        <v>70</v>
-      </c>
-      <c r="E65">
-        <v>70</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>71</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D66">
-        <v>69</v>
-      </c>
-      <c r="E66">
-        <v>71</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D67">
-        <v>70</v>
-      </c>
-      <c r="E67">
-        <v>72</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D68">
-        <v>82</v>
-      </c>
-      <c r="E68">
-        <v>73</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D69">
-        <v>69</v>
-      </c>
-      <c r="E69">
-        <v>74</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D70">
-        <v>78</v>
-      </c>
-      <c r="E70">
-        <v>75</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>76</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D71">
-        <v>79</v>
-      </c>
-      <c r="E71">
-        <v>76</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D72">
-        <v>56</v>
-      </c>
-      <c r="E72">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D73">
-        <v>77</v>
-      </c>
-      <c r="E73">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D74">
-        <v>69</v>
-      </c>
-      <c r="E74">
-        <v>79</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D75">
-        <v>70</v>
-      </c>
-      <c r="E75">
-        <v>80</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>81</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D76">
-        <v>80</v>
-      </c>
-      <c r="E76">
-        <v>81</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D77">
-        <v>81</v>
-      </c>
-      <c r="E77">
-        <v>82</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>83</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D78">
-        <v>69</v>
-      </c>
-      <c r="E78">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>84</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D79">
-        <v>84</v>
-      </c>
-      <c r="E79">
-        <v>84</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>